--- a/biology/Médecine/Uvulite/Uvulite.xlsx
+++ b/biology/Médecine/Uvulite/Uvulite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En oto-rhino-laryngologie, une uvulite (du latin uva qui signifie grain de raisin et qui a donné le terme uvule autre nom de la luette, et du grec -itis [-ite], suffixe désignant, en médecine, une maladie inflammatoire) est une inflammation de la luette, organe situé à la base du voile du palais, bien visible au fond de la gorge. 
 </t>
@@ -511,11 +523,13 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme toute infection de la sphère ORL, l'uvulite peut être due à une contamination par des virus ou par des bactéries comme les streptocoques du groupe A, l'Hemophilus influenzae[1], voir des bactéries anaérobies[2]. Chez l'enfant, elle a parfois été associée à la maladie de Kawasaki[3].
-Elle peut aussi être secondaire à une réaction à un produit chimique ou à un irritant comme le tabac ou le haschich, en particulier quand elle apparaît isolée[4],[5],[6], ou à un traumatisme, comme une fibroscopie par exemple[7]. 
-Elle est généralement accompagnée de l'inflammation des organes environnants : pharyngite, stomatite; rarement elle peut s'associer à une épiglottite[8],[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme toute infection de la sphère ORL, l'uvulite peut être due à une contamination par des virus ou par des bactéries comme les streptocoques du groupe A, l'Hemophilus influenzae, voir des bactéries anaérobies. Chez l'enfant, elle a parfois été associée à la maladie de Kawasaki.
+Elle peut aussi être secondaire à une réaction à un produit chimique ou à un irritant comme le tabac ou le haschich, en particulier quand elle apparaît isolée ou à un traumatisme, comme une fibroscopie par exemple. 
+Elle est généralement accompagnée de l'inflammation des organes environnants : pharyngite, stomatite; rarement elle peut s'associer à une épiglottite,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Symptomatologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est d'autant plus marquée que le volume de la luette est important: parfois, la membrane muqueuse autour de la luette peut gonfler ce qui peut faire multiplier la taille de la luette par 3 à 5. L'augmentation de taille de la luette fait qu'elle tend à obstruer le carrefour oropharyngé : la luette vient au contact du fond de la gorge ou de la langue, donnant l'impression d'un corps étranger. Le patient peut alors ressentir une gêne à l'élocution ou à l'alimentation; une gêne respiratoire est présente dans les formes les plus sévères.
 </t>
@@ -575,7 +591,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Différents mécanismes peuvent expliquer le gonflement de la luette :
 inflammation qui peut être associée à une infection, une irritation, ou un traumatisme et aggraver l'effet de ces différentes étiologies ;
@@ -609,12 +627,14 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement symptomatique peut faire appel à un aérosol, des anti-inflammatoires et des antalgiques.
 Le traitement étiologique sera, selon les cas des antibiotiques, en fait souvent prescrits dans la crainte d'une cause bactérienne, des médicaments anti-allergiques (adrénaline), ou une réhydratation. 
 En cas d'allergie avérée, les personnes sensibles peuvent avoir à transporter un EpiPen contenant de l'adrénaline ou de l'épinephrine pour se faire une injection quand l'uvulite commence. 
-L'uvulite, si elle est désagréable, et parfois angoissante pour le patient, est le plus souvent non grave et ne nécessite pas, en règle, d'hospitalisation[10] ; l'évolution se fait favorablement dans un délai relativement court, 24 à 48 heures.
+L'uvulite, si elle est désagréable, et parfois angoissante pour le patient, est le plus souvent non grave et ne nécessite pas, en règle, d'hospitalisation ; l'évolution se fait favorablement dans un délai relativement court, 24 à 48 heures.
 </t>
         </is>
       </c>
